--- a/8_Artsiom_Nalivaika-Vakulchik (check list, test cases, bug reports) (!).xlsx
+++ b/8_Artsiom_Nalivaika-Vakulchik (check list, test cases, bug reports) (!).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vadim_Ksendzov\homework\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED230A2B-067E-4371-B067-646C6E4959C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0AF8A1-3C05-4F5D-8A39-4F7E57BF0138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements (R1)" sheetId="4" r:id="rId1"/>
@@ -1195,12 +1195,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1332,7 +1340,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1348,47 +1356,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1397,16 +1405,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,9 +1427,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2034,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
@@ -6608,7 +6616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC619B8-D1BB-4FB9-93ED-E09A2EAEAD58}">
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
